--- a/Exercise#5/Расчеты.xlsx
+++ b/Exercise#5/Расчеты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Desktop\machine-learning-and-data-analysis\Упражнение 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\PycharmProjects\pythonProject3\Exercise#5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE76E5C-6EAF-468B-9FF3-09622A6B0EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE3583-52B3-47F3-91F2-39943D42C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>SPAM</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Offer</t>
-  </si>
-  <si>
-    <t>Invesment</t>
   </si>
 </sst>
 </file>
@@ -598,7 +595,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +716,7 @@
       </c>
       <c r="O3" s="4">
         <f>I10</f>
-        <v>-26.091000000000001</v>
+        <v>-23.045999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -758,7 +755,7 @@
       </c>
       <c r="O4" s="4">
         <f>L10</f>
-        <v>-24.494</v>
+        <v>-21.603000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,6 +769,7 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <f>10+2</f>
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -797,7 +795,7 @@
       </c>
       <c r="O5" s="4">
         <f>I13</f>
-        <v>0.16800000000000001</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -840,14 +838,14 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="s">
@@ -855,7 +853,7 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -928,7 +926,7 @@
       </c>
       <c r="I10" s="9">
         <f>ROUND(LN(I1)+LN(I2/I9)+LN(I3/I9)+LN(I4/I9)+LN(I5/I9)+LN(I6/I9)+LN(I7/I9)+LN(I8/I9),3)</f>
-        <v>-26.091000000000001</v>
+        <v>-23.045999999999999</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="9" t="s">
@@ -936,7 +934,7 @@
       </c>
       <c r="L10" s="9">
         <f>ROUND(LN(L1)+LN(L2/L9)+LN(L3/L9)+LN(L4/L9)+LN(L5/L9)+LN(L6/L9)+LN(L7/L9)+LN(L8/L9),3)</f>
-        <v>-24.494</v>
+        <v>-21.603000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -986,7 +984,7 @@
       </c>
       <c r="I13" s="11">
         <f>ROUND(1/(1+EXP(L10-I10)),3)</f>
-        <v>0.16800000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="11" t="s">
@@ -994,7 +992,7 @@
       </c>
       <c r="L13" s="11">
         <f>ROUND(1/(1+EXP(I10-L10)),3)</f>
-        <v>0.83199999999999996</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
